--- a/A00056992/Riesgosy limitaciones.xlsx
+++ b/A00056992/Riesgosy limitaciones.xlsx
@@ -62,9 +62,6 @@
     <t>Conocer otras herramientas que brinden funcionalidades similares, para el desarrollo del proyecto</t>
   </si>
   <si>
-    <t>Dificultad de aprendizaje en las tecnologías selecionadas seleccionadas, para la solución del proyecto</t>
-  </si>
-  <si>
     <t>Retraso en el cronograma y la implementación del sistema</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Dejar una buena holgura de tiempo en procesos extensos del sistema</t>
   </si>
   <si>
-    <t>Analisar cúales son los procesos que requieren más demanda de tiempo, y establecerlos cómo prioridad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objetivos especificos </t>
   </si>
   <si>
@@ -125,7 +119,13 @@
     <t>Identificar y caracterizar las actividades relacionadas con los procesos de acceso a los usuarios y el de asistencia a los eventos internos de la FVL</t>
   </si>
   <si>
-    <t>Documento que evidencia lacaracterización de las actividades que se realizan actualmente en el proceso de control de acceso asistencial</t>
+    <t>Documento que evidencia la caracterización de las actividades que se realizan actualmente en el proceso de control de acceso asistencial</t>
+  </si>
+  <si>
+    <t>Dificultad de aprendizaje en las tecnologías selecionadas, para la solución del proyecto</t>
+  </si>
+  <si>
+    <t>Analizar cúales son los procesos que requieren más demanda de tiempo, y establecerlos cómo prioridad</t>
   </si>
 </sst>
 </file>
@@ -306,92 +306,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,10 +694,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
@@ -706,286 +709,307 @@
       </c>
     </row>
     <row r="8" spans="5:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="8" t="s">
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="5" t="s">
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>23</v>
+      <c r="I21" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="32" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="12" t="s">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="12" t="s">
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="21" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="27"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="E14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="E10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="D45:F48"/>
     <mergeCell ref="G45:H48"/>
     <mergeCell ref="D49:F51"/>
@@ -996,27 +1020,6 @@
     <mergeCell ref="G42:H44"/>
     <mergeCell ref="D38:F41"/>
     <mergeCell ref="G38:H41"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="E14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="E10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
